--- a/data_export/liste_famille_personne.xlsx
+++ b/data_export/liste_famille_personne.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninamartignoni/Documents/Github/Migration-italienne/data_export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D97896D-6910-1A49-A07E-2A3210C25DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E204D966-5F31-D84B-AA58-F0D916442ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{8AEC464D-787A-014C-B411-9918C4CA342B}"/>
+    <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{8AEC464D-787A-014C-B411-9918C4CA342B}"/>
   </bookViews>
   <sheets>
     <sheet name="famille" sheetId="2" r:id="rId1"/>
@@ -1229,12 +1229,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1251,8 +1257,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1694,7 +1700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A14EC63-1DC0-D040-8FB5-662263A3F4D7}">
   <dimension ref="A1:N96"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G55" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1758,25 +1766,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2">
         <v>54</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1">
         <v>-18368</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>-11550</v>
       </c>
       <c r="H2">
@@ -1785,42 +1793,42 @@
       <c r="I2">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3">
         <v>65</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
         <v>-18310</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>-11618</v>
       </c>
       <c r="H3">
@@ -1829,42 +1837,42 @@
       <c r="I3">
         <v>6</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4">
         <v>135</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1">
         <v>-17140</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>-10981</v>
       </c>
       <c r="H4">
@@ -1873,42 +1881,42 @@
       <c r="I4">
         <v>5</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="C5">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1">
         <v>-18592</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>-13361</v>
       </c>
       <c r="H5">
@@ -1917,42 +1925,42 @@
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="C6">
         <v>182</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1">
         <v>-15719</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>-10824</v>
       </c>
       <c r="H6">
@@ -1961,42 +1969,42 @@
       <c r="I6">
         <v>4</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7">
         <v>77</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1">
         <v>-18082</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>-13165</v>
       </c>
       <c r="H7">
@@ -2005,42 +2013,42 @@
       <c r="I7">
         <v>5</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8">
         <v>96</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
         <v>-17696</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>-12962</v>
       </c>
       <c r="H8">
@@ -2049,42 +2057,42 @@
       <c r="I8">
         <v>4</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9">
         <v>219</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1">
         <v>-18243</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>-13207</v>
       </c>
       <c r="H9">
@@ -2093,42 +2101,42 @@
       <c r="I9">
         <v>4</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10">
         <v>16</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1">
         <v>-18789</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>-14243</v>
       </c>
       <c r="H10">
@@ -2137,42 +2145,42 @@
       <c r="I10">
         <v>4</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11">
         <v>22</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1">
         <v>-18782</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>-14456</v>
       </c>
       <c r="H11">
@@ -2181,42 +2189,42 @@
       <c r="I11">
         <v>3</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12">
         <v>140</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1">
         <v>-17023</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>-12623</v>
       </c>
       <c r="H12">
@@ -2225,42 +2233,42 @@
       <c r="I12">
         <v>5</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13">
         <v>323</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1">
         <v>-17020</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>-12556</v>
       </c>
       <c r="H13">
@@ -2269,42 +2277,42 @@
       <c r="I13">
         <v>4</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>71</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" t="s">
         <v>73</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14">
         <v>332</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1">
         <v>-15265</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>-10788</v>
       </c>
       <c r="H14">
@@ -2313,42 +2321,42 @@
       <c r="I14">
         <v>4</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" t="s">
         <v>79</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="C15">
         <v>345</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1">
         <v>-15139</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>-10847</v>
       </c>
       <c r="H15">
@@ -2357,42 +2365,42 @@
       <c r="I15">
         <v>2</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>83</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" t="s">
         <v>84</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16">
         <v>50</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1">
         <v>-18404</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>-14276</v>
       </c>
       <c r="H16">
@@ -2401,42 +2409,42 @@
       <c r="I16">
         <v>4</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" t="s">
         <v>89</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" t="s">
         <v>90</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1">
         <v>-18789</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>-15135</v>
       </c>
       <c r="H17">
@@ -2445,42 +2453,42 @@
       <c r="I17">
         <v>4</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>91</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>77</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" t="s">
         <v>93</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" t="s">
         <v>41</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18">
         <v>291</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="2">
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1">
         <v>-15186</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>-11478</v>
       </c>
       <c r="H18">
@@ -2489,42 +2497,42 @@
       <c r="I18">
         <v>3</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" t="s">
         <v>96</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" t="s">
         <v>97</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" t="s">
         <v>85</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19">
         <v>148</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1">
         <v>-16695</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>-13389</v>
       </c>
       <c r="H19">
@@ -2533,42 +2541,42 @@
       <c r="I19">
         <v>3</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
         <v>100</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" t="s">
         <v>101</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" t="s">
         <v>102</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>27</v>
       </c>
       <c r="C20">
         <v>160</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>-17733</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>-14599</v>
       </c>
       <c r="H20">
@@ -2577,42 +2585,42 @@
       <c r="I20">
         <v>3</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" t="s">
         <v>106</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" t="s">
         <v>107</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" t="s">
         <v>108</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21">
         <v>8</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="1">
         <v>-18826</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>-15751</v>
       </c>
       <c r="H21">
@@ -2621,42 +2629,42 @@
       <c r="I21">
         <v>4</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" t="s">
         <v>109</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" t="s">
         <v>111</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" t="s">
         <v>112</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" t="s">
         <v>113</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22">
         <v>15</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1">
         <v>-18789</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>-15802</v>
       </c>
       <c r="H22">
@@ -2665,42 +2673,42 @@
       <c r="I22">
         <v>4</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" t="s">
         <v>114</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" t="s">
         <v>116</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" t="s">
         <v>117</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" t="s">
         <v>118</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23">
         <v>20</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1">
         <v>-18782</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>-15802</v>
       </c>
       <c r="H23">
@@ -2709,42 +2717,42 @@
       <c r="I23">
         <v>3</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" t="s">
         <v>120</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" t="s">
         <v>122</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" t="s">
         <v>123</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" t="s">
         <v>113</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24">
         <v>85</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="2">
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1">
         <v>-18782</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>-15802</v>
       </c>
       <c r="H24">
@@ -2753,42 +2761,42 @@
       <c r="I24">
         <v>4</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" t="s">
         <v>124</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" t="s">
         <v>126</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" t="s">
         <v>127</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" t="s">
         <v>128</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25">
         <v>114</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="1">
         <v>-18769</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>-15816</v>
       </c>
       <c r="H25">
@@ -2797,42 +2805,42 @@
       <c r="I25">
         <v>3</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" t="s">
         <v>131</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" t="s">
         <v>132</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" t="s">
         <v>133</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26">
         <v>199</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="1">
         <v>-13697</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>-10735</v>
       </c>
       <c r="H26">
@@ -2841,42 +2849,42 @@
       <c r="I26">
         <v>3</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" t="s">
         <v>136</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" t="s">
         <v>137</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" t="s">
         <v>138</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>139</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27">
         <v>228</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="1">
         <v>-14590</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>-11599</v>
       </c>
       <c r="H27">
@@ -2885,42 +2893,42 @@
       <c r="I27">
         <v>3</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" t="s">
         <v>141</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" t="s">
         <v>142</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" t="s">
         <v>143</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28">
         <v>272</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="1">
         <v>-14609</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>-11919</v>
       </c>
       <c r="H28">
@@ -2929,42 +2937,42 @@
       <c r="I28">
         <v>3</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" t="s">
         <v>146</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" t="s">
         <v>147</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" t="s">
         <v>148</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>150</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29">
         <v>112</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>-18341</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>-16058</v>
       </c>
       <c r="H29">
@@ -2973,42 +2981,42 @@
       <c r="I29">
         <v>3</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" t="s">
         <v>152</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" t="s">
         <v>153</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" t="s">
         <v>154</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>156</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>27</v>
       </c>
       <c r="C30">
         <v>152</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>157</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="1">
         <v>-18761</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>-16381</v>
       </c>
       <c r="H30">
@@ -3017,42 +3025,42 @@
       <c r="I30">
         <v>3</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" t="s">
         <v>156</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" t="s">
         <v>158</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" t="s">
         <v>159</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" t="s">
         <v>160</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>161</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>27</v>
       </c>
       <c r="C31">
         <v>51</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>162</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="1">
         <v>-18404</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>-16187</v>
       </c>
       <c r="H31">
@@ -3061,42 +3069,42 @@
       <c r="I31">
         <v>3</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" t="s">
         <v>161</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" t="s">
         <v>163</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" t="s">
         <v>164</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" t="s">
         <v>55</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>27</v>
       </c>
       <c r="C32">
         <v>110</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>165</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="1">
         <v>-18212</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>-16037</v>
       </c>
       <c r="H32">
@@ -3105,42 +3113,42 @@
       <c r="I32">
         <v>3</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" t="s">
         <v>156</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" t="s">
         <v>166</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" t="s">
         <v>167</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" t="s">
         <v>168</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>169</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33">
         <v>378</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>170</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="1">
         <v>-14535</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>-12075</v>
       </c>
       <c r="H33">
@@ -3149,42 +3157,42 @@
       <c r="I33">
         <v>3</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" t="s">
         <v>171</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" t="s">
         <v>172</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" t="s">
         <v>173</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>27</v>
       </c>
       <c r="C34">
         <v>17</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="1">
         <v>-18782</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>-17045</v>
       </c>
       <c r="H34">
@@ -3193,42 +3201,42 @@
       <c r="I34">
         <v>2</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" t="s">
         <v>120</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" t="s">
         <v>175</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" t="s">
         <v>176</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" t="s">
         <v>177</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>15</v>
       </c>
       <c r="C35">
         <v>10</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>179</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="1">
         <v>-18797</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>-17333</v>
       </c>
       <c r="H35">
@@ -3237,42 +3245,42 @@
       <c r="I35">
         <v>2</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" t="s">
         <v>180</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" t="s">
         <v>181</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" t="s">
         <v>182</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>15</v>
       </c>
       <c r="C36">
         <v>139</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>184</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="1">
         <v>-17023</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="1">
         <v>-15539</v>
       </c>
       <c r="H36">
@@ -3281,42 +3289,42 @@
       <c r="I36">
         <v>2</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" t="s">
         <v>185</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" t="s">
         <v>186</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" t="s">
         <v>187</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N36" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>188</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>15</v>
       </c>
       <c r="C37">
         <v>158</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>189</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>105</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>-16112</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <v>-14626</v>
       </c>
       <c r="H37">
@@ -3325,42 +3333,42 @@
       <c r="I37">
         <v>2</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" t="s">
         <v>190</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" t="s">
         <v>191</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" t="s">
         <v>192</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="N37" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>193</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38">
         <v>166</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>194</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="1">
         <v>-15933</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="1">
         <v>-14488</v>
       </c>
       <c r="H38">
@@ -3369,42 +3377,42 @@
       <c r="I38">
         <v>2</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" t="s">
         <v>195</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" t="s">
         <v>196</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" t="s">
         <v>197</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="N38" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>198</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>27</v>
       </c>
       <c r="C39">
         <v>167</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>199</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="1">
         <v>-15922</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="1">
         <v>-14446</v>
       </c>
       <c r="H39">
@@ -3413,42 +3421,42 @@
       <c r="I39">
         <v>2</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" t="s">
         <v>198</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" t="s">
         <v>200</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" t="s">
         <v>201</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" t="s">
         <v>202</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="N39" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>203</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>27</v>
       </c>
       <c r="C40">
         <v>203</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>204</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="1">
         <v>-14992</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="1">
         <v>-13575</v>
       </c>
       <c r="H40">
@@ -3457,42 +3465,42 @@
       <c r="I40">
         <v>2</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" t="s">
         <v>203</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" t="s">
         <v>205</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" t="s">
         <v>206</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" t="s">
         <v>207</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="N40" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>208</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>15</v>
       </c>
       <c r="C41">
         <v>206</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>209</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="1">
         <v>-14957</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <v>-13473</v>
       </c>
       <c r="H41">
@@ -3501,42 +3509,42 @@
       <c r="I41">
         <v>2</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" t="s">
         <v>210</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" t="s">
         <v>211</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" t="s">
         <v>55</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="N41" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>212</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>15</v>
       </c>
       <c r="C42">
         <v>207</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>213</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="1">
         <v>-13466</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="1">
         <v>-11980</v>
       </c>
       <c r="H42">
@@ -3545,42 +3553,42 @@
       <c r="I42">
         <v>2</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" t="s">
         <v>214</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" t="s">
         <v>215</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" t="s">
         <v>216</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="N42" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>217</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>15</v>
       </c>
       <c r="C43">
         <v>210</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>218</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="1">
         <v>-13431</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="1">
         <v>-11919</v>
       </c>
       <c r="H43">
@@ -3589,42 +3597,42 @@
       <c r="I43">
         <v>2</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" t="s">
         <v>34</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" t="s">
         <v>215</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" t="s">
         <v>46</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N43" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>219</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44">
         <v>247</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>220</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="1">
         <v>-12458</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="1">
         <v>-10965</v>
       </c>
       <c r="H44">
@@ -3633,42 +3641,42 @@
       <c r="I44">
         <v>2</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" t="s">
         <v>221</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" t="s">
         <v>215</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" t="s">
         <v>68</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>222</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>15</v>
       </c>
       <c r="C45">
         <v>249</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>223</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>105</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>-13977</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <v>-12417</v>
       </c>
       <c r="H45">
@@ -3677,42 +3685,42 @@
       <c r="I45">
         <v>2</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" t="s">
         <v>224</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" t="s">
         <v>225</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" t="s">
         <v>187</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="N45" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>226</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>15</v>
       </c>
       <c r="C46">
         <v>262</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>227</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="1">
         <v>-12171</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="1">
         <v>-10649</v>
       </c>
       <c r="H46">
@@ -3721,42 +3729,42 @@
       <c r="I46">
         <v>2</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K46" t="s">
         <v>228</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L46" t="s">
         <v>215</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" t="s">
         <v>229</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="N46" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>230</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>15</v>
       </c>
       <c r="C47">
         <v>263</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>231</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="2">
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="1">
         <v>-12171</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="1">
         <v>-10640</v>
       </c>
       <c r="H47">
@@ -3765,42 +3773,42 @@
       <c r="I47">
         <v>2</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K47" t="s">
         <v>232</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L47" t="s">
         <v>215</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="M47" t="s">
         <v>25</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="N47" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>233</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>15</v>
       </c>
       <c r="C48">
         <v>294</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>234</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="2">
+      <c r="E48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="1">
         <v>-12751</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="1">
         <v>-11241</v>
       </c>
       <c r="H48">
@@ -3809,42 +3817,42 @@
       <c r="I48">
         <v>2</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="K48" t="s">
         <v>235</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L48" t="s">
         <v>215</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="M48" t="s">
         <v>236</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="N48" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>237</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49">
         <v>318</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>238</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="2">
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="1">
         <v>-15606</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <v>-14110</v>
       </c>
       <c r="H49">
@@ -3853,42 +3861,42 @@
       <c r="I49">
         <v>2</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="K49" t="s">
         <v>239</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" t="s">
         <v>240</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" t="s">
         <v>241</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="N49" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>242</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>15</v>
       </c>
       <c r="C50">
         <v>333</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>243</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="2">
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="1">
         <v>-15246</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>-13734</v>
       </c>
       <c r="H50">
@@ -3897,42 +3905,42 @@
       <c r="I50">
         <v>2</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K50" t="s">
         <v>34</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L50" t="s">
         <v>225</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="M50" t="s">
         <v>46</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="N50" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>244</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>27</v>
       </c>
       <c r="C51">
         <v>376</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>245</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" s="2">
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="1">
         <v>-16037</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <v>-14542</v>
       </c>
       <c r="H51">
@@ -3941,42 +3949,42 @@
       <c r="I51">
         <v>2</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" t="s">
         <v>244</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="K51" t="s">
         <v>246</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="L51" t="s">
         <v>247</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M51" t="s">
         <v>160</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="N51" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>27</v>
       </c>
       <c r="C52">
         <v>5</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>248</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" s="2">
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="1">
         <v>-18974</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="1">
         <v>-17747</v>
       </c>
       <c r="H52">
@@ -3985,42 +3993,42 @@
       <c r="I52">
         <v>4</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" t="s">
         <v>91</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="K52" t="s">
         <v>249</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L52" t="s">
         <v>250</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M52" t="s">
         <v>251</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="N52" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>156</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>27</v>
       </c>
       <c r="C53">
         <v>97</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>252</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="2">
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="1">
         <v>-18404</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="1">
         <v>-17202</v>
       </c>
       <c r="H53">
@@ -4029,42 +4037,42 @@
       <c r="I53">
         <v>3</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" t="s">
         <v>156</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="K53" t="s">
         <v>253</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="L53" t="s">
         <v>123</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="M53" t="s">
         <v>254</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="N53" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>27</v>
       </c>
       <c r="C54">
         <v>58</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>256</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="2">
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="1">
         <v>-18331</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="1">
         <v>-17687</v>
       </c>
       <c r="H54">
@@ -4073,42 +4081,42 @@
       <c r="I54">
         <v>2</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" t="s">
         <v>32</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K54" t="s">
         <v>34</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" t="s">
         <v>181</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M54" t="s">
         <v>257</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="N54" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>27</v>
       </c>
       <c r="C55">
         <v>61</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>258</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="2">
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="1">
         <v>-18727</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="1">
         <v>-18310</v>
       </c>
       <c r="H55">
@@ -4117,1736 +4125,1736 @@
       <c r="I55">
         <v>2</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" t="s">
         <v>32</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K55" t="s">
         <v>259</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="L55" t="s">
         <v>260</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" t="s">
         <v>261</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="N55" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>263</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>15</v>
       </c>
       <c r="C56">
         <v>19</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>264</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="2">
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="1">
         <v>-18782</v>
       </c>
-      <c r="G56" s="2"/>
+      <c r="G56" s="1"/>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" t="s">
         <v>263</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="K56" t="s">
         <v>265</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="L56" t="s">
         <v>266</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M56" t="s">
         <v>267</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="N56" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>268</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>15</v>
       </c>
       <c r="C57">
         <v>108</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>269</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" s="2">
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="1">
         <v>-17609</v>
       </c>
-      <c r="G57" s="2"/>
+      <c r="G57" s="1"/>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" t="s">
         <v>268</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="K57" t="s">
         <v>270</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="L57" t="s">
         <v>271</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="M57" t="s">
         <v>113</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="N57" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>263</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="C58">
         <v>118</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>272</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="2">
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="1">
         <v>-17285</v>
       </c>
-      <c r="G58" s="2"/>
+      <c r="G58" s="1"/>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" t="s">
         <v>263</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="K58" t="s">
         <v>273</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="L58" t="s">
         <v>266</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="M58" t="s">
         <v>274</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="N58" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>263</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>15</v>
       </c>
       <c r="C59">
         <v>126</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>275</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="2">
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="1">
         <v>-17208</v>
       </c>
-      <c r="G59" s="2"/>
+      <c r="G59" s="1"/>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" t="s">
         <v>263</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="K59" t="s">
         <v>276</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="L59" t="s">
         <v>266</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="M59" t="s">
         <v>277</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="N59" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>263</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60">
         <v>150</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>278</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="2">
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="1">
         <v>-16469</v>
       </c>
-      <c r="G60" s="2"/>
+      <c r="G60" s="1"/>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" t="s">
         <v>263</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="K60" t="s">
         <v>279</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="L60" t="s">
         <v>280</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M60" t="s">
         <v>46</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="N60" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>263</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>15</v>
       </c>
       <c r="C61">
         <v>154</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>281</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" s="2">
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="1">
         <v>-16230</v>
       </c>
-      <c r="G61" s="2"/>
+      <c r="G61" s="1"/>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" t="s">
         <v>263</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="K61" t="s">
         <v>282</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L61" t="s">
         <v>283</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" t="s">
         <v>284</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="N61" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>285</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62">
         <v>162</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>286</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="2">
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="1">
         <v>-15976</v>
       </c>
-      <c r="G62" s="2"/>
+      <c r="G62" s="1"/>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" t="s">
         <v>285</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="K62" t="s">
         <v>287</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="L62" t="s">
         <v>280</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="M62" t="s">
         <v>288</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="N62" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>263</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>15</v>
       </c>
       <c r="C63">
         <v>178</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>289</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="2">
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="1">
         <v>-15751</v>
       </c>
-      <c r="G63" s="2"/>
+      <c r="G63" s="1"/>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" t="s">
         <v>263</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="K63" t="s">
         <v>270</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="L63" t="s">
         <v>271</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="M63" t="s">
         <v>113</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="N63" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>290</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>15</v>
       </c>
       <c r="C64">
         <v>211</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>291</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="2">
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="1">
         <v>-13415</v>
       </c>
-      <c r="G64" s="2"/>
+      <c r="G64" s="1"/>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" t="s">
         <v>290</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="K64" t="s">
         <v>292</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="L64" t="s">
         <v>293</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" t="s">
         <v>241</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="N64" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>294</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65">
         <v>224</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>295</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" s="2">
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="1">
         <v>-13121</v>
       </c>
-      <c r="G65" s="2"/>
+      <c r="G65" s="1"/>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" t="s">
         <v>294</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K65" t="s">
         <v>296</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="L65" t="s">
         <v>293</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="M65" t="s">
         <v>68</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="N65" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>15</v>
       </c>
       <c r="C66">
         <v>229</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>297</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" s="2">
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="1">
         <v>-13056</v>
       </c>
-      <c r="G66" s="2"/>
+      <c r="G66" s="1"/>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" t="s">
         <v>0</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="K66" t="s">
         <v>270</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="L66" t="s">
         <v>293</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="M66" t="s">
         <v>80</v>
       </c>
-      <c r="N66" s="1" t="s">
+      <c r="N66" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>298</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>15</v>
       </c>
       <c r="C67">
         <v>239</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>299</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" s="2">
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="1">
         <v>-12703</v>
       </c>
-      <c r="G67" s="2"/>
+      <c r="G67" s="1"/>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" t="s">
         <v>298</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="K67" t="s">
         <v>300</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="L67" t="s">
         <v>293</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="M67" t="s">
         <v>216</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="N67" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>301</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>15</v>
       </c>
       <c r="C68">
         <v>248</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>302</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" s="2">
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="1">
         <v>-12449</v>
       </c>
-      <c r="G68" s="2"/>
+      <c r="G68" s="1"/>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" t="s">
         <v>301</v>
       </c>
-      <c r="K68" s="1" t="s">
+      <c r="K68" t="s">
         <v>292</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="L68" t="s">
         <v>293</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="M68" t="s">
         <v>303</v>
       </c>
-      <c r="N68" s="1" t="s">
+      <c r="N68" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>15</v>
       </c>
       <c r="C69">
         <v>261</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>304</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="2">
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="1">
         <v>-12227</v>
       </c>
-      <c r="G69" s="2"/>
+      <c r="G69" s="1"/>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" t="s">
         <v>105</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="K69" t="s">
         <v>305</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="L69" t="s">
         <v>293</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="M69" t="s">
         <v>306</v>
       </c>
-      <c r="N69" s="1" t="s">
+      <c r="N69" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>307</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70">
         <v>267</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" t="s">
         <v>308</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
         <v>105</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="1">
         <v>-12062</v>
       </c>
-      <c r="G70" s="2"/>
+      <c r="G70" s="1"/>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" t="s">
         <v>307</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="K70" t="s">
         <v>80</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="L70" t="s">
         <v>293</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="M70" t="s">
         <v>149</v>
       </c>
-      <c r="N70" s="1" t="s">
+      <c r="N70" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>15</v>
       </c>
       <c r="C71">
         <v>280</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>309</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" s="2">
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="1">
         <v>-11711</v>
       </c>
-      <c r="G71" s="2"/>
+      <c r="G71" s="1"/>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" t="s">
         <v>0</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="K71" t="s">
         <v>310</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="L71" t="s">
         <v>293</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="M71" t="s">
         <v>311</v>
       </c>
-      <c r="N71" s="1" t="s">
+      <c r="N71" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>312</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>15</v>
       </c>
       <c r="C72">
         <v>281</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>313</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" s="2">
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="1">
         <v>-11702</v>
       </c>
-      <c r="G72" s="2"/>
+      <c r="G72" s="1"/>
       <c r="H72">
         <v>0</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" t="s">
         <v>312</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="K72" t="s">
         <v>314</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="L72" t="s">
         <v>293</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="M72" t="s">
         <v>25</v>
       </c>
-      <c r="N72" s="1" t="s">
+      <c r="N72" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>294</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>15</v>
       </c>
       <c r="C73">
         <v>284</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" t="s">
         <v>315</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" s="2">
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="1">
         <v>-11561</v>
       </c>
-      <c r="G73" s="2"/>
+      <c r="G73" s="1"/>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J73" t="s">
         <v>294</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="K73" t="s">
         <v>316</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="L73" t="s">
         <v>293</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="M73" t="s">
         <v>68</v>
       </c>
-      <c r="N73" s="1" t="s">
+      <c r="N73" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>317</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>15</v>
       </c>
       <c r="C74">
         <v>293</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>318</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" s="2">
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="1">
         <v>-11401</v>
       </c>
-      <c r="G74" s="2"/>
+      <c r="G74" s="1"/>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J74" t="s">
         <v>317</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="K74" t="s">
         <v>319</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="L74" t="s">
         <v>293</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="M74" t="s">
         <v>320</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="N74" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>321</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>15</v>
       </c>
       <c r="C75">
         <v>298</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" t="s">
         <v>322</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" s="2">
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="1">
         <v>-11112</v>
       </c>
-      <c r="G75" s="2"/>
+      <c r="G75" s="1"/>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J75" t="s">
         <v>321</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="K75" t="s">
         <v>323</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="L75" t="s">
         <v>293</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="M75" t="s">
         <v>46</v>
       </c>
-      <c r="N75" s="1" t="s">
+      <c r="N75" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>324</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76">
         <v>299</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" t="s">
         <v>325</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" s="2">
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="1">
         <v>-11040</v>
       </c>
-      <c r="G76" s="2"/>
+      <c r="G76" s="1"/>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" t="s">
         <v>324</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="K76" t="s">
         <v>326</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="L76" t="s">
         <v>293</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="M76" t="s">
         <v>327</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="N76" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>328</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>15</v>
       </c>
       <c r="C77">
         <v>301</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" t="s">
         <v>329</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" t="s">
         <v>105</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="1">
         <v>-11050</v>
       </c>
-      <c r="G77" s="2"/>
+      <c r="G77" s="1"/>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J77" t="s">
         <v>328</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="K77" t="s">
         <v>330</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="L77" t="s">
         <v>293</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="M77" t="s">
         <v>331</v>
       </c>
-      <c r="N77" s="1" t="s">
+      <c r="N77" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>332</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>15</v>
       </c>
       <c r="C78">
         <v>305</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" t="s">
         <v>333</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" t="s">
         <v>105</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="1">
         <v>-10860</v>
       </c>
-      <c r="G78" s="2"/>
+      <c r="G78" s="1"/>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="J78" t="s">
         <v>332</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="K78" t="s">
         <v>334</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="L78" t="s">
         <v>293</v>
       </c>
-      <c r="M78" s="1" t="s">
+      <c r="M78" t="s">
         <v>80</v>
       </c>
-      <c r="N78" s="1" t="s">
+      <c r="N78" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>15</v>
       </c>
       <c r="C79">
         <v>306</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" t="s">
         <v>335</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" s="2">
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="1">
         <v>-18984</v>
       </c>
-      <c r="G79" s="2"/>
+      <c r="G79" s="1"/>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="J79" t="s">
         <v>0</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="K79" t="s">
         <v>279</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="L79" t="s">
         <v>336</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="M79" t="s">
         <v>80</v>
       </c>
-      <c r="N79" s="1" t="s">
+      <c r="N79" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>337</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>15</v>
       </c>
       <c r="C80">
         <v>312</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" t="s">
         <v>338</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" t="s">
         <v>105</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="1">
         <v>-18943</v>
       </c>
-      <c r="G80" s="2"/>
+      <c r="G80" s="1"/>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J80" t="s">
         <v>337</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="K80" t="s">
         <v>339</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="L80" t="s">
         <v>340</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="M80" t="s">
         <v>341</v>
       </c>
-      <c r="N80" s="1" t="s">
+      <c r="N80" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>342</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>15</v>
       </c>
       <c r="C81">
         <v>321</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>343</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" t="s">
         <v>105</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="1">
         <v>-15584</v>
       </c>
-      <c r="G81" s="2"/>
+      <c r="G81" s="1"/>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J81" t="s">
         <v>342</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="K81" t="s">
         <v>344</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="L81" t="s">
         <v>271</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="M81" t="s">
         <v>160</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="N81" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>345</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>15</v>
       </c>
       <c r="C82">
         <v>322</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" t="s">
         <v>346</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F82" s="2">
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="1">
         <v>-15551</v>
       </c>
-      <c r="G82" s="2"/>
+      <c r="G82" s="1"/>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="J82" t="s">
         <v>345</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="K82" t="s">
         <v>347</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="L82" t="s">
         <v>271</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="M82" t="s">
         <v>348</v>
       </c>
-      <c r="N82" s="1" t="s">
+      <c r="N82" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>349</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>15</v>
       </c>
       <c r="C83">
         <v>326</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" t="s">
         <v>350</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" s="2">
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="1">
         <v>-15539</v>
       </c>
-      <c r="G83" s="2"/>
+      <c r="G83" s="1"/>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="J83" t="s">
         <v>349</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="K83" t="s">
         <v>279</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="L83" t="s">
         <v>351</v>
       </c>
-      <c r="M83" s="1" t="s">
+      <c r="M83" t="s">
         <v>352</v>
       </c>
-      <c r="N83" s="1" t="s">
+      <c r="N83" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>353</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>15</v>
       </c>
       <c r="C84">
         <v>334</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" t="s">
         <v>354</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" s="2">
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="1">
         <v>-15237</v>
       </c>
-      <c r="G84" s="2"/>
+      <c r="G84" s="1"/>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="J84" t="s">
         <v>353</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="K84" t="s">
         <v>347</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="L84" t="s">
         <v>340</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="M84" t="s">
         <v>355</v>
       </c>
-      <c r="N84" s="1" t="s">
+      <c r="N84" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>356</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>15</v>
       </c>
       <c r="C85">
         <v>350</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" t="s">
         <v>357</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="2">
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="1">
         <v>-15104</v>
       </c>
-      <c r="G85" s="2"/>
+      <c r="G85" s="1"/>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="J85" t="s">
         <v>356</v>
       </c>
-      <c r="K85" s="1" t="s">
+      <c r="K85" t="s">
         <v>358</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="L85" t="s">
         <v>280</v>
       </c>
-      <c r="M85" s="1" t="s">
+      <c r="M85" t="s">
         <v>359</v>
       </c>
-      <c r="N85" s="1" t="s">
+      <c r="N85" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>360</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>15</v>
       </c>
       <c r="C86">
         <v>365</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" t="s">
         <v>361</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F86" s="2">
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="1">
         <v>-14719</v>
       </c>
-      <c r="G86" s="2"/>
+      <c r="G86" s="1"/>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="J86" t="s">
         <v>360</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="K86" t="s">
         <v>362</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="L86" t="s">
         <v>340</v>
       </c>
-      <c r="M86" s="1" t="s">
+      <c r="M86" t="s">
         <v>80</v>
       </c>
-      <c r="N86" s="1" t="s">
+      <c r="N86" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>363</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>15</v>
       </c>
       <c r="C87">
         <v>367</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" t="s">
         <v>43</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F87" s="2">
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" s="1">
         <v>-11641</v>
       </c>
-      <c r="G87" s="2"/>
+      <c r="G87" s="1"/>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="J87" t="s">
         <v>363</v>
       </c>
-      <c r="K87" s="1" t="s">
+      <c r="K87" t="s">
         <v>292</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="L87" t="s">
         <v>293</v>
       </c>
-      <c r="M87" s="1" t="s">
+      <c r="M87" t="s">
         <v>46</v>
       </c>
-      <c r="N87" s="1" t="s">
+      <c r="N87" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>364</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>15</v>
       </c>
       <c r="C88">
         <v>368</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" t="s">
         <v>365</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F88" s="2">
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" s="1">
         <v>-14679</v>
       </c>
-      <c r="G88" s="2"/>
+      <c r="G88" s="1"/>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="J88" t="s">
         <v>364</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="K88" t="s">
         <v>282</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="L88" t="s">
         <v>340</v>
       </c>
-      <c r="M88" s="1" t="s">
+      <c r="M88" t="s">
         <v>55</v>
       </c>
-      <c r="N88" s="1" t="s">
+      <c r="N88" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>366</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>15</v>
       </c>
       <c r="C89">
         <v>377</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" t="s">
         <v>367</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F89" s="2">
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="1">
         <v>-14537</v>
       </c>
-      <c r="G89" s="2"/>
+      <c r="G89" s="1"/>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="J89" t="s">
         <v>366</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="K89" t="s">
         <v>368</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="L89" t="s">
         <v>340</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="M89" t="s">
         <v>119</v>
       </c>
-      <c r="N89" s="1" t="s">
+      <c r="N89" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>15</v>
       </c>
       <c r="C90">
         <v>394</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" t="s">
         <v>369</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F90" s="2">
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="1">
         <v>-14081</v>
       </c>
-      <c r="G90" s="2"/>
+      <c r="G90" s="1"/>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="J90" t="s">
         <v>105</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="K90" t="s">
         <v>300</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="L90" t="s">
         <v>280</v>
       </c>
-      <c r="M90" s="1" t="s">
+      <c r="M90" t="s">
         <v>216</v>
       </c>
-      <c r="N90" s="1" t="s">
+      <c r="N90" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>370</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>15</v>
       </c>
       <c r="C91">
         <v>398</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" t="s">
         <v>371</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F91" s="2">
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="1">
         <v>-13907</v>
       </c>
-      <c r="G91" s="2"/>
+      <c r="G91" s="1"/>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="J91" t="s">
         <v>370</v>
       </c>
-      <c r="K91" s="1" t="s">
+      <c r="K91" t="s">
         <v>372</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="L91" t="s">
         <v>280</v>
       </c>
-      <c r="M91" s="1" t="s">
+      <c r="M91" t="s">
         <v>187</v>
       </c>
-      <c r="N91" s="1" t="s">
+      <c r="N91" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>373</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>15</v>
       </c>
       <c r="C92">
         <v>408</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" t="s">
         <v>374</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F92" s="2">
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="1">
         <v>-10850</v>
       </c>
-      <c r="G92" s="2"/>
+      <c r="G92" s="1"/>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="J92" t="s">
         <v>373</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="K92" t="s">
         <v>375</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="L92" t="s">
         <v>293</v>
       </c>
-      <c r="M92" s="1" t="s">
+      <c r="M92" t="s">
         <v>376</v>
       </c>
-      <c r="N92" s="1" t="s">
+      <c r="N92" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>377</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>15</v>
       </c>
       <c r="C93">
         <v>415</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" t="s">
         <v>378</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F93" s="2">
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" s="1">
         <v>-10659</v>
       </c>
-      <c r="G93" s="2"/>
+      <c r="G93" s="1"/>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="J93" t="s">
         <v>377</v>
       </c>
-      <c r="K93" s="1" t="s">
+      <c r="K93" t="s">
         <v>379</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="L93" t="s">
         <v>293</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="M93" t="s">
         <v>380</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="N93" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>381</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>15</v>
       </c>
       <c r="C94">
         <v>418</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" t="s">
         <v>382</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F94" s="2">
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="1">
         <v>-10780</v>
       </c>
-      <c r="G94" s="2"/>
+      <c r="G94" s="1"/>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="J94" t="s">
         <v>381</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="K94" t="s">
         <v>292</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="L94" t="s">
         <v>293</v>
       </c>
-      <c r="M94" s="1" t="s">
+      <c r="M94" t="s">
         <v>41</v>
       </c>
-      <c r="N94" s="1" t="s">
+      <c r="N94" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>383</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>15</v>
       </c>
       <c r="C95">
         <v>420</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" t="s">
         <v>302</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F95" s="2">
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" s="1">
         <v>-10777</v>
       </c>
-      <c r="G95" s="2"/>
+      <c r="G95" s="1"/>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="J95" t="s">
         <v>383</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="K95" t="s">
         <v>292</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="L95" t="s">
         <v>293</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="M95" t="s">
         <v>303</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="N95" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>384</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>15</v>
       </c>
       <c r="C96">
         <v>292</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" t="s">
         <v>385</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="J96" t="s">
         <v>384</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="K96" t="s">
         <v>292</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="L96" t="s">
         <v>293</v>
       </c>
-      <c r="M96" s="1" t="s">
+      <c r="M96" t="s">
         <v>41</v>
       </c>
-      <c r="N96" s="1" t="s">
+      <c r="N96" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5862,7 +5870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13C2C92-F6C0-B445-A4AA-3563875487D4}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5879,7 +5887,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2">
@@ -5887,7 +5895,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3">
